--- a/av/Eagle_Pass_NC_06052024_1.xlsx
+++ b/av/Eagle_Pass_NC_06052024_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LH9896/Library/CloudStorage/Box-Box/_TELL/Projects/TELL &amp; H2TX/UEBER CRINGE 2025/CRINGE_analysis/av/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A3500B-94FA-6B42-A7E2-A73910CEBBE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5EA471-5AE6-4648-A057-2CB0888287B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{DA92505A-14EB-442A-BF79-E4C56CDA18E1}"/>
   </bookViews>
@@ -65,7 +65,7 @@
     <t>Uh not necessary. No, because basically speaking, I've not really necessarily been an eavesdropper, someone that's always listening to what other people are saying. So basically speaking, no, I don't I don't think that's really been a big problem. </t>
   </si>
   <si>
-    <t>Did you ever tell a story about another person thinking the other person was not near you, but then turned around and saw the person was standing right next to you? </t>
+    <t>...but then turned around and saw the person was standing right next to you? </t>
   </si>
 </sst>
 </file>
@@ -932,7 +932,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -949,7 +949,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>

--- a/av/Eagle_Pass_NC_06052024_1.xlsx
+++ b/av/Eagle_Pass_NC_06052024_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LH9896/Library/CloudStorage/Box-Box/_TELL/Projects/TELL &amp; H2TX/UEBER CRINGE 2025/CRINGE_analysis/av/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5EA471-5AE6-4648-A057-2CB0888287B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EB5941-195F-0747-BE9A-6109CEA37132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{DA92505A-14EB-442A-BF79-E4C56CDA18E1}"/>
   </bookViews>
@@ -44,9 +44,6 @@
     <t>Participant</t>
   </si>
   <si>
-    <t xml:space="preserve">In a way, Yes. Because uh I've actually heard people speaking about the gringo and so forth, so on thinking that I don't know Spanish. And then it's rather interesting for me to uh turn around and say,"Que decias?" </t>
-  </si>
-  <si>
     <t>[LAUGH] That's very, is it very common? </t>
   </si>
   <si>
@@ -66,6 +63,9 @@
   </si>
   <si>
     <t>...but then turned around and saw the person was standing right next to you? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In a way, yes. Because uh I've actually heard people speaking about the gringo and so forth, so on thinking that I don't know Spanish. And then it's rather interesting for me to uh turn around and say,"Que decias?" </t>
   </si>
 </sst>
 </file>
@@ -932,7 +932,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -943,10 +943,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -954,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -962,7 +962,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -978,7 +978,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="64" x14ac:dyDescent="0.2">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
